--- a/linlin.xlsx
+++ b/linlin.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="695" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27630" windowHeight="13755" tabRatio="695" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="跟踪" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3.7'!$A$1:$K$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3.9'!$A$1:$K$42</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="762">
   <si>
     <t>岗位</t>
   </si>
@@ -3125,10 +3125,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>马丁</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>男</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -3137,18 +3133,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>13522553372</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>不愿参加面试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>薪资待遇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在出差，加微信</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3161,31 +3145,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>卢先生</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>3.16 14.00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>明天上午可面试，下班前再联系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>发邮件，3.13联系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午四点后联系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前月薪4w，要求在成都工作</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3229,10 +3193,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>wzg615@126.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>殷总面试，然后吴总再面一次</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3253,22 +3213,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>张峻荣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>carelessboy@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>zyls_guosheng@163.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未通</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>52524601@qq.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3309,29 +3257,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>未接</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>五点半再打</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>刘启凯</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">13466788527
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>张庆猛</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">13466788527@163.com
-</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3339,10 +3269,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>闫飞</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -3359,10 +3285,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>智然</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>女</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -3371,26 +3293,11 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>18911566823@139.com</t>
-  </si>
-  <si>
-    <t>齐涵钰</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>846688170@qq.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>杨靖宇</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>yangjingyu113@163.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>18301511878@163.com</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -3414,23 +3321,11 @@
     <t>huming820910@163.com</t>
   </si>
   <si>
-    <t>张成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>37210317@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>刘佳</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8792756061@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>015075671868</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3466,27 +3361,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>发短信邀请</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>旅游策划</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>zhujk115@126.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>钱东亚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时先生</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>752857759@qq.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3506,22 +3385,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>792756061@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>在郑州做项目，不确定何时回京，保持联系</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>刚找到合适的工作，不想变动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱建奎</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>旅游策划总监</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3531,14 +3398,6 @@
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕琳琳</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前是总经理职位，觉得职位和项目不符合，期望年薪百八十万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3546,30 +3405,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>李强</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>复试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3.14 13.00</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>武剑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zgzcr_wj@126.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>张磊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3578,27 +3421,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>武杰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>leizhang2785@163.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>13041174888@163.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>发邮件，明天联系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>住在通州，嫌距离远</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚到新集团，不考虑换工作</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3659,10 +3486,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>kitty_lilin@hotmail.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3.15 14.30</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3700,34 +3523,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>刘嘉楠</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>liujn921@126.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>王马伟</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>eeww1212@163.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>企划经理</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>曾鑫</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>66862236@qq.com</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>运营中心总经理 /一定约过来</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -3748,18 +3547,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>不想做行政事务类助理，想做战略管理方向</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已找到新工作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>入职新公司，已转正，不想跳槽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>目前年薪100w，底薪年薪120w，低于不考虑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3773,18 +3560,6 @@
   </si>
   <si>
     <t>3.20  15.00</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>623979736@qq.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>pingping007@sohu.com</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>43412844@qq.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -3796,23 +3571,70 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>李霖</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>总裁助理</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>纪新成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <t>007@sohu.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9736@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>44@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5@126.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0058713@139.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheng@163.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lessboy@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4601@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4602@qq.com</t>
+  </si>
+  <si>
+    <t>4603@qq.com</t>
+  </si>
+  <si>
+    <t>4604@qq.com</t>
+  </si>
+  <si>
+    <t>4605@qq.com</t>
+  </si>
+  <si>
+    <t>4606@qq.com</t>
+  </si>
+  <si>
+    <t>吕d</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -4001,13 +3823,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.249977111117893"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -4146,7 +3961,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4516,15 +4331,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4534,17 +4340,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4552,35 +4349,17 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4597,16 +4376,10 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4622,6 +4395,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -4953,7 +4734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -5000,7 +4781,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="22" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>7</v>
@@ -5405,7 +5186,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="91" t="s">
-        <v>794</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5659,39 +5440,39 @@
         <v>24</v>
       </c>
       <c r="B23" s="108" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="E23" s="8">
         <v>41</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="H23" s="21">
         <v>17701283737</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="K23" s="61" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="9"/>
       <c r="B24" s="21" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="D24" s="57" t="s">
         <v>11</v>
@@ -5701,31 +5482,31 @@
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="28" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="H24" s="85" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="I24" s="77" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="J24" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K24" s="61" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="9"/>
       <c r="B25" s="28" t="s">
-        <v>726</v>
+        <v>699</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E25" s="8">
         <v>31</v>
@@ -5738,13 +5519,13 @@
         <v>15210443771</v>
       </c>
       <c r="I25" s="77" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
       <c r="J25" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K25" s="61" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -5758,7 +5539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -5878,7 +5659,7 @@
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="57" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5888,7 +5669,7 @@
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5897,10 +5678,10 @@
         <v>108</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -5908,78 +5689,78 @@
         <v>13910058713</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="J5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="21"/>
       <c r="B6" s="12" t="s">
-        <v>760</v>
+        <v>717</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>761</v>
+        <v>718</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="E6" s="8">
         <v>32</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>762</v>
+        <v>719</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>706</v>
+        <v>687</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>763</v>
+        <v>720</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>764</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="21"/>
       <c r="B7" s="12" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>710</v>
+        <v>688</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="E7" s="8">
         <v>33</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H7" s="12">
         <v>18612008849</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>711</v>
+        <v>689</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>770</v>
+        <v>726</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6123,7 +5904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -6158,7 +5939,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>7</v>
@@ -6369,7 +6150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -6651,7 +6432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -6946,7 +6727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6959,7 +6740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6974,7 +6755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -8057,7 +7838,7 @@
       <c r="J34" s="13"/>
       <c r="K34" s="14"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" ht="409.6">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -8121,7 +7902,7 @@
       </c>
       <c r="K36" s="14"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" ht="409.6">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -8274,7 +8055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -9191,7 +8972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -10015,7 +9796,7 @@
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="409.6">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -10027,7 +9808,7 @@
       <c r="I30" s="21"/>
       <c r="J30" s="21"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="409.6">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -10039,7 +9820,7 @@
       <c r="I31" s="21"/>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="409.6">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -10051,7 +9832,7 @@
       <c r="I32" s="21"/>
       <c r="J32" s="21"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="409.6">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -10063,7 +9844,7 @@
       <c r="I33" s="21"/>
       <c r="J33" s="21"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="409.6">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -10086,7 +9867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
@@ -11369,7 +11150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -12528,7 +12309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -13874,7 +13655,7 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" ht="409.6">
       <c r="A43" s="21">
         <v>42</v>
       </c>
@@ -13908,7 +13689,7 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" ht="409.6">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -13942,7 +13723,7 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" ht="409.6">
       <c r="A45" s="21">
         <v>44</v>
       </c>
@@ -13976,7 +13757,7 @@
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" ht="409.6">
       <c r="A46" s="21">
         <v>45</v>
       </c>
@@ -14010,7 +13791,7 @@
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" ht="409.6">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -14044,7 +13825,7 @@
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" ht="409.6">
       <c r="A48" s="21">
         <v>47</v>
       </c>
@@ -14078,7 +13859,7 @@
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" ht="409.6">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -14112,7 +13893,7 @@
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" ht="409.6">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -14146,7 +13927,7 @@
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" ht="409.6">
       <c r="A51" s="21">
         <v>50</v>
       </c>
@@ -14180,7 +13961,7 @@
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" ht="409.6">
       <c r="A52" s="21">
         <v>51</v>
       </c>
@@ -14214,7 +13995,7 @@
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" ht="409.6">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -14248,7 +14029,7 @@
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" ht="409.6">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -14282,7 +14063,7 @@
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" ht="409.6">
       <c r="A55" s="21">
         <v>54</v>
       </c>
@@ -14316,7 +14097,7 @@
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" ht="409.6">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -14378,11 +14159,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14419,7 +14200,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="I1" s="23" t="s">
         <v>644</v>
@@ -14444,8 +14225,8 @@
       <c r="B2" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="59" t="s">
-        <v>366</v>
+      <c r="C2" s="75" t="s">
+        <v>761</v>
       </c>
       <c r="D2" s="75" t="s">
         <v>11</v>
@@ -14458,17 +14239,17 @@
         <v>240</v>
       </c>
       <c r="H2" s="60">
-        <v>13311345699</v>
+        <v>13311345</v>
       </c>
       <c r="I2" s="60"/>
-      <c r="J2" s="57" t="s">
-        <v>12</v>
+      <c r="J2" s="27" t="s">
+        <v>760</v>
       </c>
       <c r="K2" s="60" t="s">
         <v>390</v>
       </c>
       <c r="L2" s="21" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M2" s="21"/>
     </row>
@@ -14479,11 +14260,11 @@
       <c r="B3" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>298</v>
+      <c r="C3" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="8">
         <v>38</v>
@@ -14492,18 +14273,18 @@
       <c r="G3" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>347</v>
+      <c r="H3" s="60">
+        <v>13311345</v>
       </c>
       <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="K3" s="74" t="s">
-        <v>348</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>412</v>
+      <c r="J3" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>648</v>
       </c>
       <c r="M3" s="21"/>
     </row>
@@ -14514,11 +14295,11 @@
       <c r="B4" s="100" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="125" t="s">
-        <v>438</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>401</v>
+      <c r="C4" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E4" s="8">
         <v>24</v>
@@ -14527,17 +14308,19 @@
       <c r="G4" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="H4" s="21">
-        <v>17600299376</v>
+      <c r="H4" s="60">
+        <v>13311345</v>
       </c>
       <c r="I4" s="21"/>
-      <c r="J4" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="L4" s="21"/>
+      <c r="J4" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13">
@@ -14547,28 +14330,30 @@
       <c r="B5" s="100" t="s">
         <v>399</v>
       </c>
-      <c r="C5" s="125" t="s">
-        <v>430</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>422</v>
+      <c r="C5" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="8">
         <v>24</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="8"/>
-      <c r="H5" s="21">
-        <v>15712846024</v>
+      <c r="H5" s="60">
+        <v>13311345</v>
       </c>
       <c r="I5" s="21"/>
-      <c r="J5" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="L5" s="21"/>
+      <c r="J5" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K5" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13">
@@ -14578,28 +14363,30 @@
       <c r="B6" s="108" t="s">
         <v>513</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>171</v>
+      <c r="C6" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="8">
         <v>40</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="113">
-        <v>15810696276</v>
+      <c r="H6" s="60">
+        <v>13311345</v>
       </c>
       <c r="I6" s="113"/>
-      <c r="J6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="21"/>
+      <c r="J6" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L6" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13">
@@ -14607,13 +14394,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="108" t="s">
-        <v>662</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>594</v>
+        <v>653</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E7" s="8">
         <v>33</v>
@@ -14622,52 +14409,52 @@
       <c r="G7" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="H7" s="113">
-        <v>13522621190</v>
+      <c r="H7" s="60">
+        <v>13311345</v>
       </c>
       <c r="I7" s="113"/>
-      <c r="J7" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>607</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>658</v>
+      <c r="J7" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="141" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>642</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>24</v>
+      <c r="C8" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E8" s="59"/>
       <c r="F8" s="91" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="G8" s="59"/>
-      <c r="H8" s="118">
-        <v>13811755655</v>
-      </c>
-      <c r="I8" s="154" t="s">
-        <v>798</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="L8" s="131" t="s">
-        <v>725</v>
+      <c r="H8" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I8" s="140" t="s">
+        <v>747</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>648</v>
       </c>
       <c r="M8" s="21"/>
     </row>
@@ -14675,35 +14462,38 @@
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="141" t="s">
         <v>601</v>
       </c>
-      <c r="C9" s="59" t="s">
-        <v>641</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>24</v>
+      <c r="C9" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E9" s="59">
         <v>34</v>
       </c>
       <c r="F9" s="60" t="s">
-        <v>796</v>
+        <v>743</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>795</v>
-      </c>
-      <c r="H9" s="118">
-        <v>15120047978</v>
-      </c>
-      <c r="I9" s="154" t="s">
-        <v>797</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>660</v>
+        <v>742</v>
+      </c>
+      <c r="H9" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>748</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>648</v>
       </c>
       <c r="M9" s="21"/>
     </row>
@@ -14714,31 +14504,31 @@
       <c r="B10" s="71" t="s">
         <v>645</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>646</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>647</v>
+      <c r="C10" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E10" s="71">
         <v>45</v>
       </c>
       <c r="F10" s="122"/>
       <c r="G10" s="71" t="s">
+        <v>647</v>
+      </c>
+      <c r="H10" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L10" s="21" t="s">
         <v>648</v>
-      </c>
-      <c r="H10" s="123" t="s">
-        <v>649</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>650</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>661</v>
       </c>
       <c r="M10" s="21"/>
     </row>
@@ -14749,11 +14539,11 @@
       <c r="B11" s="78" t="s">
         <v>331</v>
       </c>
-      <c r="C11" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="D11" s="78" t="s">
-        <v>24</v>
+      <c r="C11" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E11" s="51">
         <v>37</v>
@@ -14764,16 +14554,18 @@
       <c r="G11" s="78" t="s">
         <v>240</v>
       </c>
-      <c r="H11" s="48">
-        <v>13439686330</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="48" t="s">
-        <v>651</v>
-      </c>
-      <c r="L11" s="48"/>
+      <c r="H11" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K11" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M11" s="48"/>
     </row>
     <row r="12" spans="1:13">
@@ -14781,30 +14573,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>655</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>647</v>
+        <v>744</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="17" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="12">
-        <v>13701033042</v>
+      <c r="H12" s="60">
+        <v>13311345</v>
       </c>
       <c r="I12" s="77" t="s">
-        <v>799</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+        <v>749</v>
+      </c>
+      <c r="J12" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K12" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M12" s="21"/>
     </row>
     <row r="13" spans="1:13">
@@ -14812,26 +14608,30 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="C13" s="127" t="s">
-        <v>663</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>647</v>
+        <v>655</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
-      <c r="H13" s="126">
-        <v>13651391092</v>
+      <c r="H13" s="60">
+        <v>13311345</v>
       </c>
       <c r="I13" s="21"/>
-      <c r="J13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="J13" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K13" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L13" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M13" s="21"/>
     </row>
     <row r="14" spans="1:13">
@@ -14839,32 +14639,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>801</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>647</v>
+        <v>745</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="21"/>
       <c r="F14" s="47" t="s">
-        <v>759</v>
+        <v>716</v>
       </c>
       <c r="G14" s="21"/>
-      <c r="H14" s="21">
-        <v>13801329418</v>
+      <c r="H14" s="60">
+        <v>13311345</v>
       </c>
       <c r="I14" s="77" t="s">
-        <v>672</v>
-      </c>
-      <c r="J14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>673</v>
-      </c>
-      <c r="L14" s="21"/>
+        <v>750</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K14" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L14" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M14" s="21"/>
     </row>
     <row r="15" spans="1:13">
@@ -14874,29 +14676,29 @@
       <c r="B15" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>647</v>
+      <c r="C15" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="21">
-        <v>13910058713</v>
+      <c r="H15" s="60">
+        <v>13311345</v>
       </c>
       <c r="I15" s="77" t="s">
-        <v>674</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>673</v>
+        <v>751</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K15" s="60" t="s">
+        <v>390</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="M15" s="21"/>
     </row>
@@ -14907,30 +14709,32 @@
       <c r="B16" s="108" t="s">
         <v>513</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>676</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>647</v>
+      <c r="C16" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="8">
         <v>28</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="H16" s="21">
-        <v>15801022450</v>
+      <c r="H16" s="60">
+        <v>13311345</v>
       </c>
       <c r="I16" s="77" t="s">
-        <v>680</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>677</v>
-      </c>
-      <c r="L16" s="21"/>
+        <v>752</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K16" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M16" s="21"/>
     </row>
     <row r="17" spans="1:13">
@@ -14940,30 +14744,32 @@
       <c r="B17" s="108" t="s">
         <v>513</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>678</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>647</v>
+      <c r="C17" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E17" s="21">
         <v>36</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
-      <c r="H17" s="21">
-        <v>18108089998</v>
+      <c r="H17" s="60">
+        <v>13311345</v>
       </c>
       <c r="I17" s="77" t="s">
-        <v>679</v>
-      </c>
-      <c r="J17" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>681</v>
-      </c>
-      <c r="L17" s="21"/>
+        <v>753</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K17" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L17" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M17" s="21"/>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
@@ -14973,10 +14779,10 @@
       <c r="B18" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D18" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="57">
@@ -14984,20 +14790,20 @@
       </c>
       <c r="F18" s="58"/>
       <c r="G18" s="57"/>
-      <c r="H18" s="57">
-        <v>13522233983</v>
-      </c>
-      <c r="I18" s="128" t="s">
-        <v>682</v>
-      </c>
-      <c r="J18" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>267</v>
-      </c>
-      <c r="L18" s="100" t="s">
-        <v>683</v>
+      <c r="H18" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I18" s="125" t="s">
+        <v>754</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L18" s="21" t="s">
+        <v>648</v>
       </c>
       <c r="M18" s="21"/>
     </row>
@@ -15008,10 +14814,10 @@
       <c r="B19" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>684</v>
-      </c>
-      <c r="D19" s="57" t="s">
+      <c r="C19" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D19" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="8">
@@ -15019,21 +14825,23 @@
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="28" t="s">
-        <v>690</v>
-      </c>
-      <c r="H19" s="85" t="s">
-        <v>689</v>
-      </c>
-      <c r="I19" s="77" t="s">
-        <v>685</v>
-      </c>
-      <c r="J19" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>691</v>
-      </c>
-      <c r="L19" s="21"/>
+        <v>677</v>
+      </c>
+      <c r="H19" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I19" s="125" t="s">
+        <v>755</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K19" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>648</v>
+      </c>
       <c r="M19" s="21"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1">
@@ -15041,12 +14849,12 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>662</v>
-      </c>
-      <c r="C20" s="91" t="s">
-        <v>686</v>
-      </c>
-      <c r="D20" s="57" t="s">
+        <v>653</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D20" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="59">
@@ -15055,30 +14863,32 @@
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
       <c r="H20" s="60">
-        <v>13810222427</v>
-      </c>
-      <c r="I20" s="77" t="s">
-        <v>687</v>
-      </c>
-      <c r="J20" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="100" t="s">
-        <v>692</v>
-      </c>
-      <c r="L20" s="21"/>
+        <v>13311345</v>
+      </c>
+      <c r="I20" s="125" t="s">
+        <v>756</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K20" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L20" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>662</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>694</v>
-      </c>
-      <c r="D21" s="57" t="s">
+        <v>653</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D21" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="8">
@@ -15086,19 +14896,21 @@
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="21">
-        <v>18910217023</v>
-      </c>
-      <c r="I21" s="77" t="s">
-        <v>688</v>
-      </c>
-      <c r="J21" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K21" s="100" t="s">
-        <v>693</v>
-      </c>
-      <c r="L21" s="21"/>
+      <c r="H21" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I21" s="125" t="s">
+        <v>757</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K21" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="14.25" customHeight="1">
       <c r="A22" s="21">
@@ -15107,10 +14919,10 @@
       <c r="B22" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="C22" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D22" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="8">
@@ -15120,17 +14932,21 @@
       <c r="G22" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="H22" s="21">
-        <v>13720056003</v>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="J22" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="L22" s="21"/>
+      <c r="H22" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I22" s="125" t="s">
+        <v>758</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K22" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="14.25" customHeight="1">
       <c r="A23" s="21">
@@ -15139,10 +14955,10 @@
       <c r="B23" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="59" t="s">
-        <v>696</v>
-      </c>
-      <c r="D23" s="28" t="s">
+      <c r="C23" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D23" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="8">
@@ -15150,51 +14966,59 @@
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="I23" s="129" t="s">
-        <v>697</v>
-      </c>
-      <c r="J23" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="L23" s="21"/>
+      <c r="H23" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I23" s="125" t="s">
+        <v>759</v>
+      </c>
+      <c r="J23" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K23" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>699</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>647</v>
+        <v>681</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E24" s="8">
         <v>43</v>
       </c>
-      <c r="F24" s="130" t="s">
-        <v>734</v>
+      <c r="F24" s="126" t="s">
+        <v>704</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>700</v>
-      </c>
-      <c r="H24" s="12">
-        <v>13701203250</v>
-      </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+        <v>682</v>
+      </c>
+      <c r="H24" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I24" s="125" t="s">
+        <v>754</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K24" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L24" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="21">
@@ -15203,45 +15027,49 @@
       <c r="B25" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>718</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>647</v>
+      <c r="C25" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E25" s="8">
         <v>32</v>
       </c>
       <c r="F25" s="47" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="G25" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="H25" s="85" t="s">
-        <v>722</v>
-      </c>
-      <c r="I25" s="77" t="s">
-        <v>719</v>
-      </c>
-      <c r="J25" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
+      <c r="H25" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I25" s="125" t="s">
+        <v>755</v>
+      </c>
+      <c r="J25" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K25" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L25" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>733</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>720</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>647</v>
+        <v>703</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E26" s="8">
         <v>25</v>
@@ -15250,64 +15078,68 @@
       <c r="G26" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="H26" s="21">
-        <v>18518077158</v>
-      </c>
-      <c r="I26" s="77" t="s">
-        <v>735</v>
-      </c>
-      <c r="J26" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="61" t="s">
-        <v>732</v>
-      </c>
-      <c r="L26" s="21"/>
+      <c r="H26" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I26" s="125" t="s">
+        <v>756</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K26" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="27" spans="1:13" s="52" customFormat="1">
       <c r="A27" s="48">
         <v>26</v>
       </c>
       <c r="B27" s="78" t="s">
-        <v>739</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>738</v>
-      </c>
-      <c r="D27" s="54" t="s">
-        <v>647</v>
+        <v>706</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E27" s="51">
         <v>35</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="48"/>
-      <c r="H27" s="48">
-        <v>18510255191</v>
-      </c>
-      <c r="I27" s="132" t="s">
-        <v>727</v>
-      </c>
-      <c r="J27" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="50" t="s">
-        <v>737</v>
-      </c>
-      <c r="L27" s="48"/>
+      <c r="H27" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I27" s="125" t="s">
+        <v>757</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K27" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L27" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>726</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>728</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>647</v>
+        <v>699</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E28" s="8">
         <v>31</v>
@@ -15316,133 +15148,144 @@
       <c r="G28" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="H28" s="21">
-        <v>15210443771</v>
-      </c>
-      <c r="I28" s="77" t="s">
-        <v>731</v>
-      </c>
-      <c r="J28" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K28" s="61" t="s">
-        <v>736</v>
-      </c>
-      <c r="L28" s="21"/>
-    </row>
-    <row r="29" spans="1:13" s="136" customFormat="1">
-      <c r="A29" s="133">
+      <c r="H28" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I28" s="125" t="s">
+        <v>758</v>
+      </c>
+      <c r="J28" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K28" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L28" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="129" customFormat="1">
+      <c r="A29" s="127">
         <v>28</v>
       </c>
-      <c r="B29" s="134" t="s">
-        <v>740</v>
-      </c>
-      <c r="C29" s="133" t="s">
-        <v>729</v>
-      </c>
-      <c r="D29" s="135" t="s">
-        <v>647</v>
-      </c>
-      <c r="E29" s="134">
+      <c r="B29" s="128" t="s">
+        <v>707</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="128">
         <v>34</v>
       </c>
-      <c r="F29" s="133"/>
-      <c r="G29" s="134" t="s">
-        <v>741</v>
-      </c>
-      <c r="H29" s="133">
-        <v>13601378119</v>
-      </c>
-      <c r="I29" s="137" t="s">
-        <v>730</v>
-      </c>
-      <c r="J29" s="135" t="s">
-        <v>742</v>
-      </c>
-      <c r="K29" s="133" t="s">
-        <v>743</v>
-      </c>
-      <c r="L29" s="133"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="128" t="s">
+        <v>708</v>
+      </c>
+      <c r="H29" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I29" s="125" t="s">
+        <v>759</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K29" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L29" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>744</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>647</v>
+        <v>709</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E30" s="8">
         <v>25</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>748</v>
+        <v>711</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>746</v>
-      </c>
-      <c r="H30" s="12">
-        <v>15810522373</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="K30" s="47" t="s">
-        <v>747</v>
-      </c>
-      <c r="L30" s="21"/>
+        <v>710</v>
+      </c>
+      <c r="H30" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I30" s="125" t="s">
+        <v>754</v>
+      </c>
+      <c r="J30" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K30" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="31" spans="1:13" s="107" customFormat="1">
       <c r="A31" s="106">
         <v>30</v>
       </c>
-      <c r="B31" s="138" t="s">
+      <c r="B31" s="130" t="s">
         <v>576</v>
       </c>
-      <c r="C31" s="139" t="s">
-        <v>749</v>
-      </c>
-      <c r="D31" s="140" t="s">
-        <v>647</v>
-      </c>
-      <c r="E31" s="141">
+      <c r="C31" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="131">
         <v>34</v>
       </c>
       <c r="F31" s="106"/>
-      <c r="G31" s="142" t="s">
+      <c r="G31" s="132" t="s">
         <v>357</v>
       </c>
-      <c r="H31" s="106">
-        <v>13911818136</v>
-      </c>
-      <c r="I31" s="137" t="s">
-        <v>750</v>
-      </c>
-      <c r="J31" s="140" t="s">
-        <v>701</v>
-      </c>
-      <c r="K31" s="143" t="s">
-        <v>316</v>
-      </c>
-      <c r="L31" s="106"/>
+      <c r="H31" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I31" s="125" t="s">
+        <v>755</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K31" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L31" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="102" t="s">
-        <v>752</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>647</v>
+        <v>713</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E32" s="8">
         <v>32</v>
@@ -15451,189 +15294,205 @@
       <c r="G32" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="H32" s="21">
-        <v>13810282832</v>
-      </c>
-      <c r="I32" s="77" t="s">
-        <v>754</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="K32" s="61" t="s">
+      <c r="H32" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I32" s="125" t="s">
         <v>756</v>
       </c>
-      <c r="L32" s="21"/>
-    </row>
-    <row r="33" spans="1:12" s="151" customFormat="1">
-      <c r="A33" s="145">
+      <c r="J32" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K32" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L32" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="138" customFormat="1">
+      <c r="A33" s="133">
         <v>32</v>
       </c>
-      <c r="B33" s="146" t="s">
-        <v>752</v>
-      </c>
-      <c r="C33" s="144" t="s">
-        <v>753</v>
-      </c>
-      <c r="D33" s="147" t="s">
-        <v>647</v>
-      </c>
-      <c r="E33" s="148">
+      <c r="B33" s="134" t="s">
+        <v>713</v>
+      </c>
+      <c r="C33" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="136">
         <v>35</v>
       </c>
-      <c r="F33" s="145"/>
-      <c r="G33" s="149" t="s">
+      <c r="F33" s="133"/>
+      <c r="G33" s="137" t="s">
         <v>357</v>
       </c>
-      <c r="H33" s="145">
-        <v>13041174888</v>
-      </c>
-      <c r="I33" s="150" t="s">
-        <v>755</v>
-      </c>
-      <c r="J33" s="147" t="s">
-        <v>701</v>
-      </c>
-      <c r="K33" s="144" t="s">
+      <c r="H33" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I33" s="125" t="s">
+        <v>757</v>
+      </c>
+      <c r="J33" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K33" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="138" customFormat="1">
+      <c r="A34" s="133">
+        <v>33</v>
+      </c>
+      <c r="B34" s="135" t="s">
+        <v>685</v>
+      </c>
+      <c r="C34" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="136">
+        <v>28</v>
+      </c>
+      <c r="F34" s="139"/>
+      <c r="G34" s="137" t="s">
+        <v>687</v>
+      </c>
+      <c r="H34" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I34" s="125" t="s">
         <v>758</v>
       </c>
-      <c r="L33" s="145"/>
-    </row>
-    <row r="34" spans="1:12" s="151" customFormat="1">
-      <c r="A34" s="145">
-        <v>33</v>
-      </c>
-      <c r="B34" s="147" t="s">
-        <v>703</v>
-      </c>
-      <c r="C34" s="149" t="s">
-        <v>704</v>
-      </c>
-      <c r="D34" s="147" t="s">
-        <v>705</v>
-      </c>
-      <c r="E34" s="148">
-        <v>28</v>
-      </c>
-      <c r="F34" s="152"/>
-      <c r="G34" s="149" t="s">
-        <v>706</v>
-      </c>
-      <c r="H34" s="147">
-        <v>18911566823</v>
-      </c>
-      <c r="I34" s="147" t="s">
-        <v>707</v>
-      </c>
-      <c r="J34" s="147" t="s">
-        <v>701</v>
-      </c>
-      <c r="K34" s="144" t="s">
-        <v>757</v>
-      </c>
-      <c r="L34" s="145"/>
+      <c r="J34" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K34" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L34" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="21">
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>802</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>705</v>
+        <v>746</v>
+      </c>
+      <c r="C35" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E35" s="8">
         <v>30</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>767</v>
+        <v>724</v>
       </c>
       <c r="G35" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="H35" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I35" s="125" t="s">
+        <v>759</v>
+      </c>
+      <c r="J35" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K35" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L35" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="H35" s="12">
-        <v>13811627505</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>768</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="21">
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>708</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>705</v>
+        <v>685</v>
+      </c>
+      <c r="C36" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D36" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E36" s="8">
         <v>29</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>769</v>
+        <v>725</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>706</v>
-      </c>
-      <c r="H36" s="12">
-        <v>15011284689</v>
-      </c>
-      <c r="I36" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
+        <v>687</v>
+      </c>
+      <c r="H36" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I36" s="125" t="s">
+        <v>754</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K36" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L36" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="21">
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>710</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>705</v>
+        <v>685</v>
+      </c>
+      <c r="C37" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D37" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E37" s="8">
         <v>33</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="H37" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I37" s="125" t="s">
+        <v>755</v>
+      </c>
+      <c r="J37" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K37" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L37" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="H37" s="12">
-        <v>18612008849</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>711</v>
-      </c>
-      <c r="J37" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" s="61" t="s">
-        <v>770</v>
-      </c>
-      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="21">
@@ -15642,113 +15501,121 @@
       <c r="B38" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>804</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>647</v>
+      <c r="C38" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D38" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E38" s="8">
         <v>27</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>771</v>
+        <v>727</v>
       </c>
       <c r="G38" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="H38" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I38" s="125" t="s">
+        <v>756</v>
+      </c>
+      <c r="J38" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K38" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L38" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="H38" s="12">
-        <v>18301511878</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="J38" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="21">
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>713</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>647</v>
+        <v>730</v>
+      </c>
+      <c r="C39" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D39" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E39" s="8">
         <v>36</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="H39" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I39" s="125" t="s">
+        <v>757</v>
+      </c>
+      <c r="J39" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K39" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L39" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="H39" s="12">
-        <v>13521462072</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="J39" s="57" t="s">
-        <v>742</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>773</v>
-      </c>
-      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
       <c r="A40" s="21">
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>715</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>716</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>647</v>
+        <v>692</v>
+      </c>
+      <c r="C40" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E40" s="8">
         <v>35</v>
       </c>
       <c r="F40" s="17"/>
       <c r="G40" s="28" t="s">
+        <v>647</v>
+      </c>
+      <c r="H40" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I40" s="125" t="s">
+        <v>758</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K40" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L40" s="21" t="s">
         <v>648</v>
       </c>
-      <c r="H40" s="12">
-        <v>13811812196</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="J40" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K40" s="61" t="s">
-        <v>788</v>
-      </c>
-      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="21">
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>789</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>775</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>647</v>
+        <v>739</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D41" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E41" s="8">
         <v>35</v>
@@ -15757,134 +15624,142 @@
       <c r="G41" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H41" s="12">
-        <v>13001258141</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="J41" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K41" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="L41" s="21"/>
-    </row>
-    <row r="42" spans="1:12" s="151" customFormat="1">
-      <c r="A42" s="145">
+      <c r="H41" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I41" s="125" t="s">
+        <v>759</v>
+      </c>
+      <c r="J41" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K41" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="138" customFormat="1">
+      <c r="A42" s="133">
         <v>41</v>
       </c>
-      <c r="B42" s="147" t="s">
-        <v>777</v>
-      </c>
-      <c r="C42" s="149" t="s">
-        <v>778</v>
-      </c>
-      <c r="D42" s="147" t="s">
-        <v>647</v>
-      </c>
-      <c r="E42" s="148">
+      <c r="B42" s="135" t="s">
+        <v>733</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="136">
         <v>36</v>
       </c>
-      <c r="F42" s="152"/>
-      <c r="G42" s="149" t="s">
+      <c r="F42" s="139"/>
+      <c r="G42" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="H42" s="147">
-        <v>13810269421</v>
-      </c>
-      <c r="I42" s="147" t="s">
-        <v>779</v>
-      </c>
-      <c r="J42" s="153" t="s">
-        <v>12</v>
-      </c>
-      <c r="K42" s="145" t="s">
-        <v>790</v>
-      </c>
-      <c r="L42" s="145"/>
-    </row>
-    <row r="43" spans="1:12" s="151" customFormat="1">
-      <c r="A43" s="145">
+      <c r="H42" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I42" s="125" t="s">
+        <v>754</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K42" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L42" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" s="138" customFormat="1">
+      <c r="A43" s="133">
         <v>42</v>
       </c>
-      <c r="B43" s="147" t="s">
-        <v>777</v>
-      </c>
-      <c r="C43" s="149" t="s">
-        <v>780</v>
-      </c>
-      <c r="D43" s="147" t="s">
-        <v>439</v>
-      </c>
-      <c r="E43" s="148">
+      <c r="B43" s="135" t="s">
+        <v>733</v>
+      </c>
+      <c r="C43" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="136">
         <v>31</v>
       </c>
-      <c r="F43" s="152"/>
-      <c r="G43" s="149" t="s">
+      <c r="F43" s="139"/>
+      <c r="G43" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="H43" s="147">
-        <v>18101077765</v>
-      </c>
-      <c r="I43" s="147" t="s">
-        <v>781</v>
-      </c>
-      <c r="J43" s="153" t="s">
-        <v>12</v>
-      </c>
-      <c r="K43" s="145" t="s">
-        <v>791</v>
-      </c>
-      <c r="L43" s="145"/>
-    </row>
-    <row r="44" spans="1:12" s="151" customFormat="1">
-      <c r="A44" s="145">
+      <c r="H43" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I43" s="125" t="s">
+        <v>755</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K43" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L43" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="138" customFormat="1">
+      <c r="A44" s="133">
         <v>43</v>
       </c>
-      <c r="B44" s="147" t="s">
-        <v>782</v>
-      </c>
-      <c r="C44" s="149" t="s">
-        <v>783</v>
-      </c>
-      <c r="D44" s="147" t="s">
-        <v>439</v>
-      </c>
-      <c r="E44" s="148">
+      <c r="B44" s="135" t="s">
+        <v>734</v>
+      </c>
+      <c r="C44" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="136">
         <v>34</v>
       </c>
-      <c r="F44" s="152"/>
-      <c r="G44" s="149" t="s">
+      <c r="F44" s="139"/>
+      <c r="G44" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="H44" s="147">
-        <v>13601192241</v>
-      </c>
-      <c r="I44" s="147" t="s">
-        <v>784</v>
-      </c>
-      <c r="J44" s="153" t="s">
-        <v>12</v>
-      </c>
-      <c r="K44" s="145" t="s">
-        <v>792</v>
-      </c>
-      <c r="L44" s="145"/>
+      <c r="H44" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I44" s="125" t="s">
+        <v>756</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K44" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="21">
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>785</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>786</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>439</v>
+        <v>735</v>
+      </c>
+      <c r="C45" s="75" t="s">
+        <v>761</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E45" s="8">
         <v>37</v>
@@ -15893,19 +15768,21 @@
       <c r="G45" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H45" s="12">
-        <v>18611182228</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="J45" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K45" s="32" t="s">
-        <v>793</v>
-      </c>
-      <c r="L45" s="21"/>
+      <c r="H45" s="60">
+        <v>13311345</v>
+      </c>
+      <c r="I45" s="125" t="s">
+        <v>757</v>
+      </c>
+      <c r="J45" s="27" t="s">
+        <v>760</v>
+      </c>
+      <c r="K45" s="60" t="s">
+        <v>390</v>
+      </c>
+      <c r="L45" s="21" t="s">
+        <v>648</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M45"/>
@@ -15917,35 +15794,33 @@
     <hyperlink ref="I16" r:id="rId4"/>
     <hyperlink ref="I14" r:id="rId5"/>
     <hyperlink ref="I18" r:id="rId6"/>
-    <hyperlink ref="I19" r:id="rId7"/>
-    <hyperlink ref="I20" r:id="rId8"/>
-    <hyperlink ref="I21" r:id="rId9"/>
-    <hyperlink ref="I23" r:id="rId10"/>
-    <hyperlink ref="I36" r:id="rId11"/>
-    <hyperlink ref="I37" r:id="rId12"/>
-    <hyperlink ref="I38" r:id="rId13"/>
-    <hyperlink ref="I39" r:id="rId14"/>
-    <hyperlink ref="I25" r:id="rId15"/>
-    <hyperlink ref="I26" r:id="rId16"/>
-    <hyperlink ref="I27" r:id="rId17"/>
-    <hyperlink ref="I29" r:id="rId18"/>
-    <hyperlink ref="I28" r:id="rId19"/>
-    <hyperlink ref="I31" r:id="rId20"/>
-    <hyperlink ref="I32" r:id="rId21"/>
-    <hyperlink ref="I33" r:id="rId22"/>
-    <hyperlink ref="I35" r:id="rId23"/>
-    <hyperlink ref="I41" r:id="rId24"/>
-    <hyperlink ref="I43" r:id="rId25"/>
-    <hyperlink ref="I9" r:id="rId26"/>
-    <hyperlink ref="I8" r:id="rId27"/>
+    <hyperlink ref="I9" r:id="rId7"/>
+    <hyperlink ref="I8" r:id="rId8"/>
+    <hyperlink ref="I19:I21" r:id="rId9" display="4601@qq.com"/>
+    <hyperlink ref="I22" r:id="rId10" display="4601@qq.com"/>
+    <hyperlink ref="I23" r:id="rId11" display="4601@qq.com"/>
+    <hyperlink ref="I24" r:id="rId12"/>
+    <hyperlink ref="I30" r:id="rId13"/>
+    <hyperlink ref="I36" r:id="rId14"/>
+    <hyperlink ref="I42" r:id="rId15"/>
+    <hyperlink ref="I25:I27" r:id="rId16" display="4601@qq.com"/>
+    <hyperlink ref="I31:I33" r:id="rId17" display="4601@qq.com"/>
+    <hyperlink ref="I37:I39" r:id="rId18" display="4601@qq.com"/>
+    <hyperlink ref="I43:I45" r:id="rId19" display="4601@qq.com"/>
+    <hyperlink ref="I28" r:id="rId20" display="4601@qq.com"/>
+    <hyperlink ref="I34" r:id="rId21" display="4601@qq.com"/>
+    <hyperlink ref="I40" r:id="rId22" display="4601@qq.com"/>
+    <hyperlink ref="I29" r:id="rId23" display="4601@qq.com"/>
+    <hyperlink ref="I35" r:id="rId24" display="4601@qq.com"/>
+    <hyperlink ref="I41" r:id="rId25" display="4601@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -16061,7 +15936,7 @@
         <v>390</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M3" s="21"/>
     </row>
@@ -16071,10 +15946,10 @@
         <v>549</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>720</v>
+        <v>695</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E4" s="8">
         <v>25</v>
@@ -16087,13 +15962,13 @@
         <v>18518077158</v>
       </c>
       <c r="I4" s="77" t="s">
-        <v>721</v>
+        <v>696</v>
       </c>
       <c r="J4" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="61" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="L4" s="21"/>
       <c r="M4" s="21"/>
@@ -16101,13 +15976,13 @@
     <row r="5" spans="1:13">
       <c r="A5" s="21"/>
       <c r="B5" s="102" t="s">
-        <v>752</v>
+        <v>713</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>751</v>
+        <v>712</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E5" s="8">
         <v>32</v>
@@ -16120,13 +15995,13 @@
         <v>13810282832</v>
       </c>
       <c r="I5" s="77" t="s">
-        <v>754</v>
+        <v>714</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="K5" s="47" t="s">
-        <v>756</v>
+        <v>715</v>
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
@@ -16134,31 +16009,31 @@
     <row r="6" spans="1:13">
       <c r="A6" s="21"/>
       <c r="B6" s="12" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E6" s="8">
         <v>35</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>766</v>
+        <v>723</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="H6" s="12">
         <v>13810728536</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="K6" s="47" t="s">
-        <v>764</v>
+        <v>721</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -16166,32 +16041,32 @@
     <row r="7" spans="1:13">
       <c r="A7" s="21"/>
       <c r="B7" s="12" t="s">
-        <v>772</v>
+        <v>728</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E7" s="8">
         <v>36</v>
       </c>
       <c r="F7" s="17"/>
       <c r="G7" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H7" s="12">
         <v>13521462072</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="J7" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="61" t="s">
-        <v>773</v>
+        <v>729</v>
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
@@ -16199,32 +16074,32 @@
     <row r="8" spans="1:13">
       <c r="A8" s="21"/>
       <c r="B8" s="12" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E8" s="8">
         <v>35</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H8" s="12">
         <v>13811812196</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="J8" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="47" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -16232,13 +16107,13 @@
     <row r="9" spans="1:13">
       <c r="A9" s="21"/>
       <c r="B9" s="12" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>775</v>
+        <v>731</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E9" s="8">
         <v>35</v>
@@ -16251,7 +16126,7 @@
         <v>13001258141</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>776</v>
+        <v>732</v>
       </c>
       <c r="J9" s="57" t="s">
         <v>12</v>
@@ -16265,10 +16140,10 @@
     <row r="10" spans="1:13">
       <c r="A10" s="21"/>
       <c r="B10" s="12" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>439</v>
@@ -16284,13 +16159,13 @@
         <v>18611182228</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>787</v>
+        <v>737</v>
       </c>
       <c r="J10" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>793</v>
+        <v>740</v>
       </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
@@ -16301,7 +16176,7 @@
         <v>513</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>439</v>
@@ -16315,13 +16190,13 @@
         <v>15801022450</v>
       </c>
       <c r="I11" s="77" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="J11" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
@@ -16345,8 +16220,8 @@
       <c r="H12" s="57">
         <v>13522233983</v>
       </c>
-      <c r="I12" s="128" t="s">
-        <v>682</v>
+      <c r="I12" s="125" t="s">
+        <v>669</v>
       </c>
       <c r="J12" s="57" t="s">
         <v>12</v>
@@ -16355,7 +16230,7 @@
         <v>267</v>
       </c>
       <c r="L12" s="100" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="M12" s="21"/>
     </row>
@@ -16365,7 +16240,7 @@
         <v>290</v>
       </c>
       <c r="C13" s="91" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="D13" s="57" t="s">
         <v>11</v>
@@ -16379,7 +16254,7 @@
         <v>13810222427</v>
       </c>
       <c r="I13" s="77" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="J13" s="57" t="s">
         <v>12</v>
@@ -16396,7 +16271,7 @@
         <v>290</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="D14" s="57" t="s">
         <v>11</v>
@@ -16410,13 +16285,13 @@
         <v>18910217023</v>
       </c>
       <c r="I14" s="77" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="J14" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="100" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -16424,10 +16299,10 @@
     <row r="15" spans="1:13">
       <c r="A15" s="21"/>
       <c r="B15" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="C15" s="127" t="s">
-        <v>663</v>
+        <v>655</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>654</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>439</v>
@@ -16435,7 +16310,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="H15" s="126">
+      <c r="H15" s="123">
         <v>13651391092</v>
       </c>
       <c r="I15" s="21"/>

--- a/linlin.xlsx
+++ b/linlin.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="8055" tabRatio="695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21540" windowHeight="6570" tabRatio="695"/>
   </bookViews>
   <sheets>
     <sheet name="3.13" sheetId="8" r:id="rId1"/>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3.13'!$A$1:$M$45</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="74">
   <si>
     <t>岗位</t>
   </si>
@@ -295,6 +295,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 13.30</t>
@@ -363,6 +364,22 @@
   </si>
   <si>
     <t>1070399077@qq.com</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>017年3月20日</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -381,6 +398,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -388,11 +406,13 @@
       <sz val="10"/>
       <color indexed="42"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -541,7 +561,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +698,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,7 +1053,7 @@
   <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1101,7 +1124,9 @@
       <c r="E2" s="17">
         <v>32</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="46" t="s">
+        <v>73</v>
+      </c>
       <c r="G2" s="17" t="s">
         <v>11</v>
       </c>
